--- a/reports/summary_TS_Speck.xlsx
+++ b/reports/summary_TS_Speck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Max Measurement P-Value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Max Change Rate (Normalized)</t>
         </is>
       </c>
@@ -492,6 +497,9 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.6609682428600492</v>
       </c>
     </row>
@@ -502,22 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>370.8333333333333</v>
+        <v>426.4</v>
       </c>
       <c r="C3" t="n">
-        <v>1.817582769665145</v>
+        <v>1.721840064338915</v>
       </c>
       <c r="D3" t="n">
-        <v>34.66666666666666</v>
+        <v>37.8</v>
       </c>
       <c r="E3" t="n">
-        <v>17.91666666666667</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>15.66666666666667</v>
+        <v>18.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.206402926779309</v>
+        <v>0.006</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1538563516413436</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>560.6666666666666</v>
+        <v>638.8</v>
       </c>
       <c r="C4" t="n">
-        <v>6.858920075785547</v>
+        <v>2.999934860173426</v>
       </c>
       <c r="D4" t="n">
-        <v>41.16666666666666</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>20.08333333333333</v>
+        <v>20.7</v>
       </c>
       <c r="F4" t="n">
-        <v>13.16666666666667</v>
+        <v>14.9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258154752366514</v>
+        <v>0.008</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2279016472070587</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.25</v>
+        <v>924.4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.319763149300972</v>
+        <v>4.268331163776551</v>
       </c>
       <c r="D5" t="n">
-        <v>151.9166666666667</v>
+        <v>169.2</v>
       </c>
       <c r="E5" t="n">
         <v>4.5</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>1.491196609882541</v>
+        <v>0.005</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7817436241667419</v>
       </c>
     </row>
     <row r="6">
@@ -592,6 +609,9 @@
         <v>1.5</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.785204624416775</v>
       </c>
     </row>
@@ -617,6 +637,9 @@
         <v>0.9</v>
       </c>
       <c r="G7" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="H7" t="n">
         <v>34.73714603794336</v>
       </c>
     </row>

--- a/reports/summary_TS_Speck.xlsx
+++ b/reports/summary_TS_Speck.xlsx
@@ -497,7 +497,7 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.017</v>
+        <v>0.039</v>
       </c>
       <c r="H2" t="n">
         <v>0.6609682428600492</v>
@@ -525,7 +525,7 @@
         <v>18.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="H3" t="n">
         <v>0.1538563516413436</v>
@@ -553,7 +553,7 @@
         <v>14.9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0.2279016472070587</v>
@@ -581,7 +581,7 @@
         <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="H5" t="n">
         <v>0.7817436241667419</v>
@@ -637,7 +637,7 @@
         <v>0.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="H7" t="n">
         <v>34.73714603794336</v>

--- a/reports/summary_TS_Speck.xlsx
+++ b/reports/summary_TS_Speck.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="H2" t="n">
         <v>0.6609682428600492</v>
@@ -525,7 +525,7 @@
         <v>18.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="H3" t="n">
         <v>0.1538563516413436</v>
@@ -553,7 +553,7 @@
         <v>14.9</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H4" t="n">
         <v>0.2279016472070587</v>
@@ -637,7 +637,7 @@
         <v>0.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>34.73714603794336</v>

--- a/reports/summary_TS_Speck.xlsx
+++ b/reports/summary_TS_Speck.xlsx
@@ -497,7 +497,7 @@
         <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.043</v>
+        <v>0.034</v>
       </c>
       <c r="H2" t="n">
         <v>0.6609682428600492</v>
@@ -525,7 +525,7 @@
         <v>18.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="H3" t="n">
         <v>0.1538563516413436</v>
@@ -553,7 +553,7 @@
         <v>14.9</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H4" t="n">
         <v>0.2279016472070587</v>
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1354.642857142857</v>
+        <v>1480.4</v>
       </c>
       <c r="C6" t="n">
-        <v>23.2693737580545</v>
+        <v>5.449850534003569</v>
       </c>
       <c r="D6" t="n">
-        <v>191.8571428571429</v>
+        <v>198.4</v>
       </c>
       <c r="E6" t="n">
-        <v>5.928571428571429</v>
+        <v>5.9</v>
       </c>
       <c r="F6" t="n">
         <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H6" t="n">
-        <v>3.785204624416775</v>
+        <v>0.7287237036207148</v>
       </c>
     </row>
     <row r="7">
@@ -637,7 +637,7 @@
         <v>0.9</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="H7" t="n">
         <v>34.73714603794336</v>
